--- a/thesis/main_new_formulation_int/Concettuale_new_formulation.xlsx
+++ b/thesis/main_new_formulation_int/Concettuale_new_formulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation_int/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B14CAD-21DA-AA4D-A6BA-2364C367B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B8290-B1FF-CB4E-8350-653B8B13FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="block_capacity" sheetId="20" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1261,7 +1261,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00;\-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1349,12 +1349,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1661,2271 +1655,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="OpenSolver1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AE6FB1-9E55-5E8B-3374-013C3C4721FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51358800" y="1828800"/>
-          <a:ext cx="5778500" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="OpenSolver2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836D67F7-9195-F3C6-9189-899DF86F419F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14427200" y="11582400"/>
-          <a:ext cx="20396200" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="OpenSolver3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B7BCB5-35B6-0BD5-A625-582B5E72D5F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="64084200" y="4064000"/>
-          <a:ext cx="825500" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="OpenSolver4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD6EBF2-DA27-D5FC-BB3D-37308ADC3AC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="1828800"/>
-          <a:ext cx="5778500" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="OpenSolver5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3213F4D-1C3E-60BE-2AA1-51FC6F07C6DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35306000" y="18491200"/>
-          <a:ext cx="15684500" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF00FF">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="OpenSolver6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD5130F-2E49-53FE-2D58-0B35111D990D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8204200" y="2032000"/>
-          <a:ext cx="609600" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209412</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="OpenSolver7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863418DC-DC74-CCCC-622D-45DFE044B5B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="1955800"/>
-          <a:ext cx="222112" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="80000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>min </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="OpenSolverU58:W64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DD655F-73BE-CCB7-EF4B-13B847C25F9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14427200" y="11582400"/>
-          <a:ext cx="2476500" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="OpenSolverY58:AB64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4B7493-6DA0-5049-63AF-6645CDE652D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17729200" y="11582400"/>
-          <a:ext cx="3302000" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="008000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="OpenSolverAD58:AR64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F441AB9-A37F-CDDE-DED9-88DDB6662B69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21856700" y="11582400"/>
-          <a:ext cx="12966700" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="9900CC"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="9900CC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="OpenSolverCG10:CM19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285170D1-50BF-16B9-4FC5-B50F3AFA0BFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66179700" y="1828800"/>
-          <a:ext cx="5778500" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="800000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0=</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="OpenSolverCG21:CM30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457281B9-D4E5-F2C7-F1FE-440290403266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66179700" y="4064000"/>
-          <a:ext cx="5778500" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="00CC33"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00CC33"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0=</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="OpenSolverCO10:CU19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF070B30-4064-86A1-09A0-FEF24AFA488B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72796400" y="1841500"/>
-          <a:ext cx="5765800" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF6600"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="OpenSolverCO21:CU38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC57C92-D269-B041-B88B-FBB5CC65B979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="4064000"/>
-          <a:ext cx="5778500" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="CC0099"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="CC0099"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="OpenSolverCO42:CR42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8CD8C8-F6EA-B8C7-6B7B-6E275C52F729}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="8331200"/>
-          <a:ext cx="3302000" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0=</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="OpenSolverCO46:CU48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6780649F-A789-A66A-E701-DB2BD04BE9AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="9144000"/>
-          <a:ext cx="5778500" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="008000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="OpenSolverCO50:CT51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B23EE2B-E314-6AEA-0581-7CFD05728EBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="9956800"/>
-          <a:ext cx="4953000" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="9900CC"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="9900CC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="OpenSolverCO53:CT54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3412B95-49E0-E54A-E791-D53AE5FEC93C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="10566400"/>
-          <a:ext cx="4953000" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="800000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="800000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="OpenSolverCO56:CU57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2801F1-891B-D46F-3629-54969165B1E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="11176000"/>
-          <a:ext cx="5778500" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="00CC33"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00CC33"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="OpenSolverCO59:CU60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C8D17A-7DEC-3C45-BEF8-60A870FCE636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="11785600"/>
-          <a:ext cx="5778500" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF6600"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="OpenSolverCO62:CT62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E4D836-30E1-1C63-DD7C-F45F90485F40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="12395200"/>
-          <a:ext cx="4953000" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="CC0099"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="CC0099"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="OpenSolverCO64:CT64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7717081A-E354-6741-8D75-35EB64F7FDFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="12801600"/>
-          <a:ext cx="4953000" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="OpenSolverCO67:CU68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573FD88D-4766-6D68-2F9A-B4EEF790D99E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="72783700" y="13411200"/>
-          <a:ext cx="5778500" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="008000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0≤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="OpenSolver24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B14C8E1-146E-31BB-42A7-0BA9C19D2FFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="64096900" y="4076700"/>
-          <a:ext cx="812800" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>308931</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="OpenSolver25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6501C8-C302-DEB3-1E38-61892525CAB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="64084200" y="4000500"/>
-          <a:ext cx="308931" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="80000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>binary</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="OpenSolver26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC97447-C3DC-9C90-C623-C0E97C8BDFB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35318700" y="18503900"/>
-          <a:ext cx="15671800" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>343748</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="OpenSolver27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE9B3D4-3F8D-1057-FC78-2D2BC0991C18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35306000" y="18427700"/>
-          <a:ext cx="343748" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="80000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>integer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6470,7 +4199,7 @@
   <dimension ref="A1:CV95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F7" zoomScale="87" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AH67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight" activeCell="I7" sqref="I7"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
@@ -19316,8 +17045,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
